--- a/doc/ue_levelstreaming.xlsx
+++ b/doc/ue_levelstreaming.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619B19AF-759E-434C-98E7-2E9EC7840102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="lod加载" sheetId="2" r:id="rId2"/>
+    <sheet name="level的LOD设置" sheetId="2" r:id="rId2"/>
+    <sheet name="内存数据示例" sheetId="4" r:id="rId3"/>
+    <sheet name="Level的LOD加载" sheetId="3" r:id="rId4"/>
+    <sheet name="配置参数" sheetId="5" r:id="rId5"/>
+    <sheet name="FLevelStreamingGCHelper" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,75 +29,476 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="133">
+  <si>
+    <t>/** If this isn't Name_None, then we load from this package on disk to the new package named PackageName</t>
+  </si>
+  <si>
+    <t>*/</t>
+  </si>
+  <si>
+    <t>UPROPERTY()</t>
+  </si>
+  <si>
+    <t>FName PackageNameToLoad;</t>
+  </si>
+  <si>
+    <t>/** LOD versions of this level</t>
+  </si>
+  <si>
+    <t>TArray&lt;FName&gt; LODPackageNames;</t>
+  </si>
+  <si>
+    <t>/** LOD package names on disk</t>
+  </si>
+  <si>
+    <t>TArray&lt;FName&gt; LODPackageNamesToLoad;</t>
+  </si>
+  <si>
+    <t>/** Transform applied to actors after loading.                                                                              */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(EditAnywhere, Category=LevelStreaming, BlueprintReadWrite)</t>
+  </si>
+  <si>
+    <t>FTransform LevelTransform;</t>
+  </si>
+  <si>
+    <t>/** Applied to LoadedLevel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                                                            */</t>
+  </si>
+  <si>
+    <t>bool bClientOnlyVisible;</t>
+  </si>
+  <si>
+    <t>/** Requested LOD. Non LOD sub-levels have Index = -1  */</t>
+  </si>
+  <si>
+    <t>UPROPERTY(transient, Category = LevelStreaming, BlueprintSetter = SetLevelLODIndex)</t>
+  </si>
+  <si>
+    <t>int32 LevelLODIndex;</t>
+  </si>
   <si>
     <t>ULevelStreaming</t>
-  </si>
-  <si>
-    <t>核心成员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/** If this isn't Name_None, then we load from this package on disk to the new package named PackageName</t>
-  </si>
-  <si>
-    <t>*/</t>
-  </si>
-  <si>
-    <t>UPROPERTY()</t>
-  </si>
-  <si>
-    <t>FName PackageNameToLoad;</t>
-  </si>
-  <si>
-    <t>/** LOD versions of this level</t>
-  </si>
-  <si>
-    <t>TArray&lt;FName&gt; LODPackageNames;</t>
-  </si>
-  <si>
-    <t>/** LOD package names on disk</t>
-  </si>
-  <si>
-    <t>TArray&lt;FName&gt; LODPackageNamesToLoad;</t>
-  </si>
-  <si>
-    <t>/** Transform applied to actors after loading.                                                                              */</t>
-  </si>
-  <si>
-    <t>UPROPERTY(EditAnywhere, Category=LevelStreaming, BlueprintReadWrite)</t>
-  </si>
-  <si>
-    <t>FTransform LevelTransform;</t>
-  </si>
-  <si>
-    <t>/** Applied to LoadedLevel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">                                                                            */</t>
-  </si>
-  <si>
-    <t>bool bClientOnlyVisible;</t>
-  </si>
-  <si>
-    <t>/** Requested LOD. Non LOD sub-levels have Index = -1  */</t>
-  </si>
-  <si>
-    <t>UPROPERTY(transient, Category = LevelStreaming, BlueprintSetter = SetLevelLODIndex)</t>
-  </si>
-  <si>
-    <t>int32 LevelLODIndex;</t>
-  </si>
-  <si>
-    <t>！！！！注意看，这个LOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！注意看，这个LOD是什么意思？？？在何时设置的？Level支持LOD?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流式关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成员变量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景可以根据距离设置4层不同的LOD，用以有优化效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！怎么加载和释放的？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://docs.unrealengine.com/4.27/zh-CN/BuildingWorlds/LevelStreaming/WorldBrowser/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WC中对于Level的Lod内存数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void UWorldComposition::UpdateStreamingState()</t>
+  </si>
+  <si>
+    <t>TArray&lt;FDistanceVisibleLevel&gt; DistanceVisibleLevels;</t>
+  </si>
+  <si>
+    <t>TArray&lt;FDistanceVisibleLevel&gt; DistanceHiddenLevels;</t>
+  </si>
+  <si>
+    <t>GetDistanceVisibleLevels(InLocations, Num, DistanceVisibleLevels, DistanceHiddenLevels);</t>
+  </si>
+  <si>
+    <t>内部会计算需要加载的信息，没有LOD的话就是自己，有LOD的就算LOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Level.LODIndex=-1表示无LOD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// Dedicated server always blocks on load</t>
+  </si>
+  <si>
+    <t>bool bShouldBlock = (OwningWorld-&gt;GetNetMode() == NM_DedicatedServer);</t>
+  </si>
+  <si>
+    <t>// Set distance hidden levels to unload</t>
+  </si>
+  <si>
+    <t>for (const FDistanceVisibleLevel&amp; Level : DistanceHiddenLevels)</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>CommitTileStreamingState(OwningWorld, Level.TileIdx, false, false, bShouldBlock, Level.LODIndex);</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>// Set distance visible levels to load</t>
+  </si>
+  <si>
+    <t>for (const FDistanceVisibleLevel&amp; Level : DistanceVisibleLevels)</t>
+  </si>
+  <si>
+    <t>CommitTileStreamingState(OwningWorld, Level.TileIdx, true, true, bShouldBlock, Level.LODIndex);</t>
+  </si>
+  <si>
+    <t>通过tileIdx找到对应的ULevelStreaming对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>判断lodidex，是否可见，是否可加载等等，设置ULevelStream的状态，然后等待加载/卸载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每帧进行判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果Level有LOD，从远到近的话，对应的LodLevel资源怎么加载，怎么卸载？新的Level怎么加载？？？？？资源怎么管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内部会进行各个sublevel的LOD信息等判断，是否需要加载</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bool ULevelStreaming::RequestLevel(UWorld* PersistentWorld, bool bAllowLevelLoadRequests, EReqLevelBlock BlockPolicy)</t>
+  </si>
+  <si>
+    <t>Level具体的加载处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么实现之前已经加载的level?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怎么切换的，资源怎么释放，何时释放？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (PendingUnloadLevel)</t>
+  </si>
+  <si>
+    <t>return false;</t>
+  </si>
+  <si>
+    <t>如果当前有等待UnLoad的Level，则先不加载，直到其被Unload掉：LOD切换的时候，就靠这个PendingUnloadLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发起加载Level的操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>LoadPackageAsync(DesiredPackageName.ToString(), nullptr, *PackageNameToLoadFrom, FLoadPackageAsyncDelegate::CreateUObject(this, &amp;ULevelStreaming::</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>AsyncLevelLoadComplete</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>), PackageFlags, PIEInstanceID, GetPriority());</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等待加载后调用SetLoadedLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ULevelStreaming::SetLoadedLevel(ULevel* Level)</t>
+  </si>
+  <si>
+    <t>PendingUnloadLevel = LoadedLevel;</t>
+  </si>
+  <si>
+    <t>LoadedLevel = Level;</t>
+  </si>
+  <si>
+    <t>将当前loadedlevel设置未待卸载对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置当前Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载完成处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新Level加入World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>之前已经加入World:Levels的Level何时移除？？？！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ULevelStreaming::UpdateStreamingState(bool&amp; bOutUpdateAgain, bool&amp; bOutRedetermineTarget)</t>
+  </si>
+  <si>
+    <t>switch(CurrentState)</t>
+  </si>
+  <si>
+    <t>case ECurrentState::MakingVisible:</t>
+  </si>
+  <si>
+    <t>if (ensure(LoadedLevel))</t>
+  </si>
+  <si>
+    <t>World-&gt;AddToWorld(LoadedLevel, LevelTransform, !bShouldBlockOnLoad);</t>
+  </si>
+  <si>
+    <t>if (LoadedLevel-&gt;bIsVisible)</t>
+  </si>
+  <si>
+    <t>// immediately discard previous level</t>
+  </si>
+  <si>
+    <t>DiscardPendingUnloadLevel(World);</t>
+  </si>
+  <si>
+    <t>if (World-&gt;Scene)</t>
+  </si>
+  <si>
+    <t>QUICK_SCOPE_CYCLE_COUNTER(STAT_UpdateLevelStreamingInner_OnLevelAddedToWorld);</t>
+  </si>
+  <si>
+    <t>// Notify the new level has been added after the old has been discarded</t>
+  </si>
+  <si>
+    <t>World-&gt;Scene-&gt;OnLevelAddedToWorld(LoadedLevel-&gt;GetOutermost()-&gt;GetFName(), World, LoadedLevel-&gt;bIsLightingScenario);</t>
+  </si>
+  <si>
+    <t>CurrentState = ECurrentState::LoadedVisible;</t>
+  </si>
+  <si>
+    <t>bOutUpdateAgain = true;</t>
+  </si>
+  <si>
+    <t>bOutRedetermineTarget = true;</t>
+  </si>
+  <si>
+    <t>break;</t>
+  </si>
+  <si>
+    <t>新的场景加入到World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>老的场景从World移除！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>void ULevelStreaming::DiscardPendingUnloadLevel(UWorld* PersistentWorld)</t>
+  </si>
+  <si>
+    <t>if (PendingUnloadLevel-&gt;bIsVisible)</t>
+  </si>
+  <si>
+    <t>PersistentWorld-&gt;RemoveFromWorld(PendingUnloadLevel);</t>
+  </si>
+  <si>
+    <t>if (!PendingUnloadLevel-&gt;bIsVisible)</t>
+  </si>
+  <si>
+    <t>FLevelStreamingGCHelper::RequestUnload(PendingUnloadLevel);</t>
+  </si>
+  <si>
+    <t>PendingUnloadLevel = nullptr;</t>
+  </si>
+  <si>
+    <t>移除老的场景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这个过程中引擎内部是否有GC？？？？！！！！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于GC-中间设计到老的lod level被移除，那么会不会涉及到GC？？？？？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在发起RequestLevel前有一个是否GC的判断</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>if (GLevelStreamingContinuouslyIncrementalGCWhileLevelsPendingPurge)</t>
+  </si>
+  <si>
+    <t>// Figure out whether there are any levels we haven't collected garbage yet.</t>
+  </si>
+  <si>
+    <t>const bool bAreLevelsPendingPurge = FLevelStreamingGCHelper::GetNumLevelsPendingPurge() &gt; 0;</t>
+  </si>
+  <si>
+    <t>// Request a 'soft' GC if there are levels pending purge and there are levels to be loaded. In the case of a blocking</t>
+  </si>
+  <si>
+    <t>// load this is going to guarantee GC firing first thing afterwards and otherwise it is going to sneak in right before</t>
+  </si>
+  <si>
+    <t>// kicking off the async load.</t>
+  </si>
+  <si>
+    <t>if (bAreLevelsPendingPurge)</t>
+  </si>
+  <si>
+    <t>GEngine-&gt;ForceGarbageCollection(false);</t>
+  </si>
+  <si>
+    <t>/** Whether to allow background level streaming. */</t>
+  </si>
+  <si>
+    <t>extern ENGINE_API int32 GUseBackgroundLevelStreaming;</t>
+  </si>
+  <si>
+    <t>/** Maximum amount of time to spend doing asynchronous loading (ms per frame). */</t>
+  </si>
+  <si>
+    <t>extern ENGINE_API float GAsyncLoadingTimeLimit;</t>
+  </si>
+  <si>
+    <t>/** Whether to use the entire time limit even if blocked on I/O. */</t>
+  </si>
+  <si>
+    <t>extern ENGINE_API int32 GAsyncLoadingUseFullTimeLimit;</t>
+  </si>
+  <si>
+    <t>/** Additional time to spend asynchronous loading during a high priority load. */</t>
+  </si>
+  <si>
+    <t>extern ENGINE_API float GPriorityAsyncLoadingExtraTime;</t>
+  </si>
+  <si>
+    <t>/** Maximum allowed time to spend for actor registration steps during level streaming (ms per frame). */</t>
+  </si>
+  <si>
+    <t>extern ENGINE_API float GLevelStreamingActorsUpdateTimeLimit;</t>
+  </si>
+  <si>
+    <t>/** Additional time to spend on actor registration steps during a high priority load. */</t>
+  </si>
+  <si>
+    <t>extern ENGINE_API float GPriorityLevelStreamingActorsUpdateExtraTime;</t>
+  </si>
+  <si>
+    <t>/** Batching granularity used to register actor components during level streaming. */</t>
+  </si>
+  <si>
+    <t>extern ENGINE_API int32 GLevelStreamingComponentsRegistrationGranularity;</t>
+  </si>
+  <si>
+    <t>/** Batching granularity used to unregister actor components during level streaming.  */</t>
+  </si>
+  <si>
+    <t>extern ENGINE_API int32 GLevelStreamingComponentsUnregistrationGranularity;</t>
+  </si>
+  <si>
+    <t>/** Maximum allowed time to spend for actor unregistration steps during level streaming (ms per frame). If this is 0.0 then we don't timeslice.*/</t>
+  </si>
+  <si>
+    <t>extern ENGINE_API float GLevelStreamingUnregisterComponentsTimeLimit;</t>
+  </si>
+  <si>
+    <t>/** Whether to force a GC after levels are streamed out to instantly reclaim the memory at the expensive of a hitch. */</t>
+  </si>
+  <si>
+    <t>extern ENGINE_API int32 GLevelStreamingForceGCAfterLevelStreamedOut;</t>
+  </si>
+  <si>
+    <t>/** Whether to repeatedly kick off incremental GC when there are levels still waiting to be purged. */</t>
+  </si>
+  <si>
+    <t>extern ENGINE_API int32 GLevelStreamingContinuouslyIncrementalGCWhileLevelsPendingPurge;</t>
+  </si>
+  <si>
+    <t>/** Enables level streaming requests while async loading (of anything) while the match is already in progress and no loading screen is up. */</t>
+  </si>
+  <si>
+    <t>extern ENGINE_API int32 GLevelStreamingAllowLevelRequestsWhileAsyncLoadingInMatch;</t>
+  </si>
+  <si>
+    <t>/** When we're already loading this many levels and actively in match, don't allow any more requests until one of those completes.  Set to zero to disable. */</t>
+  </si>
+  <si>
+    <t>extern ENGINE_API int32 GLevelStreamingMaxLevelRequestsAtOnceWhileInMatch;</t>
+  </si>
+  <si>
+    <t>相关的配置参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否在在Level在Unload的时候进行GC：发生在大地图场景，流式关卡，关卡LOD来回切换等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>默认是1，可以通过配置修改</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制GC！！！！，释放了内存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当前正在unloadlevel记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>监听了GC消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +537,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -151,17 +563,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -174,6 +589,147 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="level_details.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1295400" y="2324100"/>
+          <a:ext cx="3438525" cy="3714750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>103325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>46914</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962525" y="2324100"/>
+          <a:ext cx="11600000" cy="5685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>407976</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>46789</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="962025"/>
+          <a:ext cx="12790476" cy="6685714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,11 +994,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B4:AA35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:AA34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -450,13 +1006,26 @@
     <col min="2" max="2" width="16.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
     <row r="4" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="B4" s="1" t="s">
-        <v>0</v>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
         <v>1</v>
       </c>
     </row>
@@ -464,102 +1033,97 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
-        <v>3</v>
-      </c>
     </row>
     <row r="9" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C10" t="s">
-        <v>5</v>
+      <c r="AA12" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
-        <v>6</v>
-      </c>
-      <c r="AA13" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="AA18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C19" t="s">
+    </row>
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C22" s="2" t="s">
-        <v>10</v>
+      <c r="K22" s="3" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C27" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C24" t="s">
+      <c r="I27" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="28" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C28" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I28" t="s">
-        <v>14</v>
+      <c r="C28" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
-      <c r="C30" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C33" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C33" t="s">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="C34" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C34" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
-      <c r="C35" t="s">
+      <c r="K34" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -571,15 +1135,795 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F44E982-C9AC-44E5-97D4-06A0D62C2AC2}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C4:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="4" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C4" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="3:10" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="C4" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="W20" sqref="W20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:O126"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="P107" sqref="P107"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C8" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="C9" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D12" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="D15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D22" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="3"/>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E34" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C39" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B40" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B41" s="3">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D43" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D44" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D45" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="E46" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="D47" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D49" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D50" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D52" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C54" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B55" s="3">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D56" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D58" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D59" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C62" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="63" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D63" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J63" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B64" s="3">
+        <v>4</v>
+      </c>
+      <c r="C64" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D66" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D67" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D70" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="71" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>69</v>
+      </c>
+      <c r="N71" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="73" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="74" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="75" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="F75" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="F76" t="s">
+        <v>72</v>
+      </c>
+      <c r="N76" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="78" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="F78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="79" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="F79" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="80" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="G80" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G81" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="G82" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F83" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F85" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F86" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="F87" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="E88" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D89" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D90" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C92" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B93" s="3">
+        <v>5</v>
+      </c>
+      <c r="C93" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="C94" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="95" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D95" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="D96" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E97" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E98" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F99" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E100" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="102" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E102" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="103" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E103" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="104" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F104" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="105" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F105" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="106" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="E106" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="107" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="D107" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="108" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C108" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="110" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B110" s="3">
+        <v>6</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="111" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="C111" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D113" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="114" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D114" t="s">
+        <v>93</v>
+      </c>
+      <c r="N114" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="115" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D115" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="E116" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="117" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="E117" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="119" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="E119" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="120" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="E120" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="121" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="E121" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="122" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="E122" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="123" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="E123" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="124" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="F124" t="s">
+        <v>100</v>
+      </c>
+      <c r="N124" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="125" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="E125" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="126" spans="4:14" x14ac:dyDescent="0.2">
+      <c r="D126" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R23" sqref="R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C29" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C31" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C34" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C35" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C36" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="39" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C39" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C41" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C42" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/ue_levelstreaming.xlsx
+++ b/doc/ue_levelstreaming.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\ue\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GITHUB\ue\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B7645E4-FEA7-4CDE-9DCA-0F6CB978258C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="level的LOD设置" sheetId="2" r:id="rId2"/>
-    <sheet name="内存数据示例" sheetId="4" r:id="rId3"/>
-    <sheet name="Level的LOD加载" sheetId="3" r:id="rId4"/>
-    <sheet name="配置参数" sheetId="5" r:id="rId5"/>
-    <sheet name="FLevelStreamingGCHelper" sheetId="6" r:id="rId6"/>
+    <sheet name="World加载时加载" sheetId="7" r:id="rId2"/>
+    <sheet name="level的LOD设置" sheetId="2" r:id="rId3"/>
+    <sheet name="内存数据示例" sheetId="4" r:id="rId4"/>
+    <sheet name="Level的LOD加载" sheetId="3" r:id="rId5"/>
+    <sheet name="配置参数" sheetId="5" r:id="rId6"/>
+    <sheet name="FLevelStreamingGCHelper" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="138">
   <si>
     <t>/** If this isn't Name_None, then we load from this package on disk to the new package named PackageName</t>
   </si>
@@ -493,11 +495,28 @@
     <t>监听了GC消息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>void UWorld::Serialize( FArchive&amp; Ar )</t>
+  </si>
+  <si>
+    <t>World加载的时候，反序列化就知道包含那些了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ar &lt;&lt; ExtraReferencedObjects;</t>
+  </si>
+  <si>
+    <t>Ar &lt;&lt; StreamingLevels;</t>
+  </si>
+  <si>
+    <t>获取包含的levelstream</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -608,7 +627,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="level_details.png"/>
+        <xdr:cNvPr id="2" name="图片 1" descr="level_details.png">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -663,7 +688,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -706,7 +737,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -994,10 +1031,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AA34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1135,7 +1172,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{945B66B9-18C0-4204-9E1E-B03E8C4FDF7E}">
+  <dimension ref="B4:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C7" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>136</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:J7"/>
   <sheetViews>
     <sheetView topLeftCell="A25" workbookViewId="0">
@@ -1160,7 +1239,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
@@ -1168,8 +1247,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1191,8 +1270,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A3:O126"/>
   <sheetViews>
     <sheetView topLeftCell="A91" workbookViewId="0">
@@ -1745,8 +1824,8 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
@@ -1902,11 +1981,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B4:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
